--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium-workspace\Digitas-workspace\wrapper.project_pom\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium-workspace\Digitas-workspace\wrapper.project_pom\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="message" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>UserName</t>
   </si>
@@ -146,6 +147,21 @@
   </si>
   <si>
     <t>Userid</t>
+  </si>
+  <si>
+    <t>This is first message</t>
+  </si>
+  <si>
+    <t>This is second message</t>
+  </si>
+  <si>
+    <t>Tetst_Message</t>
+  </si>
+  <si>
+    <t>Bcol</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -476,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -707,4 +723,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>